--- a/variables/Renaming_variables_for_NLSY-97_Religion_24102012_tagset.xlsx
+++ b/variables/Renaming_variables_for_NLSY-97_Religion_24102012_tagset.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inspirion\Documents\GitHub\Multilevel-models-of-NLSY-97-religion-data\variables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="165" windowWidth="11415" windowHeight="3090" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="165" windowWidth="11415" windowHeight="3090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Var rename" sheetId="1" r:id="rId1"/>
     <sheet name="Wide_Format" sheetId="5" r:id="rId2"/>
-    <sheet name="Long_Format" sheetId="6" r:id="rId3"/>
+    <sheet name="Long_Format (3)" sheetId="8" r:id="rId3"/>
     <sheet name="Long_Format (2)" sheetId="7" r:id="rId4"/>
     <sheet name="Formats" sheetId="2" r:id="rId5"/>
+    <sheet name="Long_Format" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Var rename'!$A$1:$T$71</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="359">
   <si>
     <t xml:space="preserve">  label R0000100 = "PUBID - YTH ID CODE 1997";</t>
   </si>
@@ -663,9 +669,6 @@
   </si>
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>Cohort</t>
   </si>
   <si>
     <t>Age</t>
@@ -1107,6 +1110,78 @@
   </si>
   <si>
     <t>subject</t>
+  </si>
+  <si>
+    <t>shape1</t>
+  </si>
+  <si>
+    <t>shape2</t>
+  </si>
+  <si>
+    <t>lambda1</t>
+  </si>
+  <si>
+    <t>lambda2</t>
+  </si>
+  <si>
+    <t>lambda3</t>
+  </si>
+  <si>
+    <t>lambda4</t>
+  </si>
+  <si>
+    <t>lambda5</t>
+  </si>
+  <si>
+    <t>lambda6</t>
+  </si>
+  <si>
+    <t>lambda7</t>
+  </si>
+  <si>
+    <t>lambda8</t>
+  </si>
+  <si>
+    <t>lambda9</t>
+  </si>
+  <si>
+    <t>lambda10</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>piecewise1</t>
+  </si>
+  <si>
+    <t>piecewise2</t>
+  </si>
+  <si>
+    <t>f(x)</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>f(Zit)</t>
+  </si>
+  <si>
+    <t>exogenous</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1447,9 +1522,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1530,12 +1602,144 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1557,12 +1761,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1572,98 +1785,11 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1683,6 +1809,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1731,7 +1860,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1766,7 +1895,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2034,7 +2163,7 @@
         <v># DAYS/WK TYP FAM RELIGIOUS 1997";</v>
       </c>
       <c r="M3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="1"/>
@@ -2250,7 +2379,7 @@
         <v>CV_AGE(MONTHS)_INT_DATE 1997";</v>
       </c>
       <c r="M11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="1"/>
@@ -2277,7 +2406,7 @@
         <v>CV_AGE_INT_DATE 1997";</v>
       </c>
       <c r="M12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="1"/>
@@ -2358,7 +2487,7 @@
         <v># DAYS/WK TYP FAM RELIGIOUS 1998";</v>
       </c>
       <c r="M15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="1"/>
@@ -2385,7 +2514,7 @@
         <v>CV_AGE(MONTHS)_INT_DATE 1998";</v>
       </c>
       <c r="M16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="1"/>
@@ -2412,7 +2541,7 @@
         <v>CV_AGE_INT_DATE 1998";</v>
       </c>
       <c r="M17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="1"/>
@@ -2439,7 +2568,7 @@
         <v># DAYS/WK TYP FAM RELIGIOUS 1999";</v>
       </c>
       <c r="M18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="1"/>
@@ -2466,7 +2595,7 @@
         <v>CV_AGE(MONTHS)_INT_DATE 1999";</v>
       </c>
       <c r="M19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="1"/>
@@ -2493,7 +2622,7 @@
         <v>CV_AGE_INT_DATE 1999";</v>
       </c>
       <c r="M20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="1"/>
@@ -2520,7 +2649,7 @@
         <v># DAYS/WK TYP FAM RELIGIOUS 2000";</v>
       </c>
       <c r="M21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="1"/>
@@ -2547,7 +2676,7 @@
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
       </c>
       <c r="M22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="1"/>
@@ -2574,7 +2703,7 @@
         <v>CV_AGE(MONTHS)_INT_DATE 2000";</v>
       </c>
       <c r="M23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="1"/>
@@ -2601,7 +2730,7 @@
         <v>CV_AGE_INT_DATE 2000";</v>
       </c>
       <c r="M24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="1"/>
@@ -2628,7 +2757,7 @@
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
       </c>
       <c r="M25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="1"/>
@@ -2655,7 +2784,7 @@
         <v>CV_AGE(MONTHS)_INT_DATE 2001";</v>
       </c>
       <c r="M26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="1"/>
@@ -2682,7 +2811,7 @@
         <v>CV_AGE_INT_DATE 2001";</v>
       </c>
       <c r="M27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="1"/>
@@ -2709,7 +2838,7 @@
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
       </c>
       <c r="M28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="1"/>
@@ -2736,7 +2865,7 @@
         <v>R NOT NEED RELIGION TO HAVE VALUES 2002"</v>
       </c>
       <c r="M29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="1"/>
@@ -2763,7 +2892,7 @@
         <v>R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
       </c>
       <c r="M30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="1"/>
@@ -2790,7 +2919,7 @@
         <v>R ASKS GOD HELP MAKE DECISIONS 2002";</v>
       </c>
       <c r="M31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="1"/>
@@ -2817,7 +2946,7 @@
         <v>GOD NOTHING TO DO HAPPENS TO R 2002";</v>
       </c>
       <c r="M32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="1"/>
@@ -2844,7 +2973,7 @@
         <v>R PRAYS MORE THAN ONCE A DAY 2002";</v>
       </c>
       <c r="M33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="1"/>
@@ -2871,7 +3000,7 @@
         <v>CV_AGE(MONTHS)_INT_DATE 2002";</v>
       </c>
       <c r="M34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" ref="N34:N65" si="5">MID(B34,9,8)</f>
@@ -2898,7 +3027,7 @@
         <v>CV_AGE_INT_DATE 2002";</v>
       </c>
       <c r="M35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="5"/>
@@ -2925,7 +3054,7 @@
         <v>CV_AGE(MONTHS)_INT_DATE 2003";</v>
       </c>
       <c r="M36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="5"/>
@@ -2952,7 +3081,7 @@
         <v>CV_AGE_INT_DATE 2003";</v>
       </c>
       <c r="M37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="5"/>
@@ -2979,7 +3108,7 @@
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
       </c>
       <c r="M38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="5"/>
@@ -3006,7 +3135,7 @@
         <v>CV_AGE(MONTHS)_INT_DATE 2004";</v>
       </c>
       <c r="M39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="5"/>
@@ -3033,7 +3162,7 @@
         <v>CV_AGE_INT_DATE 2004";</v>
       </c>
       <c r="M40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="5"/>
@@ -3060,7 +3189,7 @@
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
       </c>
       <c r="M41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="5"/>
@@ -3087,7 +3216,7 @@
         <v>CV_AGE(MONTHS)_INT_DATE 2005";</v>
       </c>
       <c r="M42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="5"/>
@@ -3114,7 +3243,7 @@
         <v>CV_AGE_INT_DATE 2005";</v>
       </c>
       <c r="M43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="5"/>
@@ -3141,7 +3270,7 @@
         <v>R CURR REL PREF 2005";</v>
       </c>
       <c r="M44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="5"/>
@@ -3168,7 +3297,7 @@
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
       </c>
       <c r="M45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="5"/>
@@ -3195,7 +3324,7 @@
         <v>R NOT NEED RELIGION TO HAVE VALUES 2005"</v>
       </c>
       <c r="M46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="5"/>
@@ -3222,7 +3351,7 @@
         <v>R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
       </c>
       <c r="M47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="5"/>
@@ -3249,7 +3378,7 @@
         <v>R ASKS GOD HELP MAKE DECISIONS 2005";</v>
       </c>
       <c r="M48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="5"/>
@@ -3276,7 +3405,7 @@
         <v>GOD NOTHING TO DO HAPPENS TO R 2005";</v>
       </c>
       <c r="M49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="5"/>
@@ -3303,7 +3432,7 @@
         <v>R PRAYS MORE THAN ONCE A DAY 2005";</v>
       </c>
       <c r="M50" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="5"/>
@@ -3330,7 +3459,7 @@
         <v>CV_AGE(MONTHS)_INT_DATE 2006";</v>
       </c>
       <c r="M51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="5"/>
@@ -3357,7 +3486,7 @@
         <v>CV_AGE_INT_DATE 2006";</v>
       </c>
       <c r="M52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="5"/>
@@ -3384,7 +3513,7 @@
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
       </c>
       <c r="M53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N53" t="str">
         <f t="shared" si="5"/>
@@ -3411,7 +3540,7 @@
         <v>CV_AGE(MONTHS)_INT_DATE 2007";</v>
       </c>
       <c r="M54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="5"/>
@@ -3438,7 +3567,7 @@
         <v>CV_AGE_INT_DATE 2007";</v>
       </c>
       <c r="M55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N55" t="str">
         <f t="shared" si="5"/>
@@ -3465,7 +3594,7 @@
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
       </c>
       <c r="M56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N56" t="str">
         <f t="shared" si="5"/>
@@ -3492,7 +3621,7 @@
         <v>CV_AGE(MONTHS)_INT_DATE 2008";</v>
       </c>
       <c r="M57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N57" t="str">
         <f t="shared" si="5"/>
@@ -3519,7 +3648,7 @@
         <v>CV_AGE_INT_DATE 2008";</v>
       </c>
       <c r="M58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="5"/>
@@ -3546,7 +3675,7 @@
         <v>R CURR REL PREF 2008";</v>
       </c>
       <c r="M59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N59" t="str">
         <f t="shared" si="5"/>
@@ -3573,7 +3702,7 @@
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
       </c>
       <c r="M60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N60" t="str">
         <f t="shared" si="5"/>
@@ -3600,7 +3729,7 @@
         <v>R NOT NEED RELIGION TO HAVE VALUES 2008"</v>
       </c>
       <c r="M61" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N61" t="str">
         <f t="shared" si="5"/>
@@ -3627,7 +3756,7 @@
         <v>R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
       </c>
       <c r="M62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N62" t="str">
         <f t="shared" si="5"/>
@@ -3654,7 +3783,7 @@
         <v>R ASKS GOD HELP MAKE DECISIONS 2008";</v>
       </c>
       <c r="M63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N63" t="str">
         <f t="shared" si="5"/>
@@ -3681,7 +3810,7 @@
         <v>GOD NOTHING TO DO HAPPENS TO R 2008";</v>
       </c>
       <c r="M64" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="5"/>
@@ -3708,7 +3837,7 @@
         <v>R PRAYS MORE THAN ONCE A DAY 2008";</v>
       </c>
       <c r="M65" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N65" t="str">
         <f t="shared" si="5"/>
@@ -3735,7 +3864,7 @@
         <v>CV_AGE(MONTHS)_INT_DATE 2009";</v>
       </c>
       <c r="M66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N66" t="str">
         <f t="shared" ref="N66:N71" si="9">MID(B66,9,8)</f>
@@ -3762,7 +3891,7 @@
         <v>CV_AGE_INT_DATE 2009";</v>
       </c>
       <c r="M67" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N67" t="str">
         <f t="shared" si="9"/>
@@ -3789,7 +3918,7 @@
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
       </c>
       <c r="M68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N68" t="str">
         <f t="shared" si="9"/>
@@ -3816,7 +3945,7 @@
         <v>CV_AGE(MONTHS)_INT_DATE 2010";</v>
       </c>
       <c r="M69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N69" t="str">
         <f t="shared" si="9"/>
@@ -3843,7 +3972,7 @@
         <v>CV_AGE_INT_DATE 2010";</v>
       </c>
       <c r="M70" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="9"/>
@@ -3870,7 +3999,7 @@
         <v>HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
       </c>
       <c r="M71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N71" t="str">
         <f t="shared" si="9"/>
@@ -4026,10 +4155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U41"/>
+  <dimension ref="B2:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4044,38 +4173,36 @@
     <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C2" s="25" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G2" s="92"/>
+      <c r="H2" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54" t="s">
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57"/>
-    </row>
-    <row r="3" spans="3:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="100"/>
+    </row>
+    <row r="3" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -4092,1115 +4219,4395 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="U4" s="2">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C5" s="26">
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="24">
         <v>1</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="37">
+        <v>2010</v>
+      </c>
+      <c r="E5" s="51">
+        <v>1982</v>
+      </c>
+      <c r="F5" s="51">
+        <v>178</v>
+      </c>
+      <c r="G5" s="51">
+        <v>15</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="53">
+        <v>2</v>
+      </c>
+      <c r="L5" s="53">
+        <v>8</v>
+      </c>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="55"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" s="25">
+        <v>2</v>
+      </c>
+      <c r="D6" s="93">
         <v>1997</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E6" s="10">
         <v>1981</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F6" s="10">
         <f>190</f>
         <v>190</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G6" s="10">
         <v>16</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H6" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="11">
+      <c r="J6" s="9"/>
+      <c r="K6" s="11">
         <v>1</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="27"/>
-      <c r="U5" s="2">
-        <f>U4/12</f>
-        <v>15.833333333333334</v>
-      </c>
-    </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C6" s="28">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="L6" s="11"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="26"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="27">
+        <v>2</v>
+      </c>
+      <c r="D7" s="94">
         <v>1998</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1981</v>
-      </c>
-      <c r="F6" s="12">
-        <f>F5+12</f>
-        <v>202</v>
-      </c>
-      <c r="G6" s="12">
-        <v>17</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="13">
-        <v>3</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="29"/>
-    </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="28">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1999</v>
       </c>
       <c r="E7" s="12">
         <v>1981</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" ref="F7:F18" si="0">F6+12</f>
-        <v>214</v>
+        <f>F6+12</f>
+        <v>202</v>
       </c>
       <c r="G7" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="29"/>
-    </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="28">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2000</v>
+      <c r="Q7" s="28"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="27">
+        <v>2</v>
+      </c>
+      <c r="D8" s="94">
+        <v>1999</v>
       </c>
       <c r="E8" s="12">
         <v>1981</v>
       </c>
       <c r="F8" s="12">
-        <f>F7+11</f>
-        <v>225</v>
+        <f t="shared" ref="F8:F18" si="0">F7+12</f>
+        <v>214</v>
       </c>
       <c r="G8" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="32">
-        <v>7</v>
-      </c>
-      <c r="L8" s="32">
-        <v>1</v>
-      </c>
+      <c r="K8" s="13">
+        <v>5</v>
+      </c>
+      <c r="L8" s="13"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="29"/>
-    </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="28">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12">
-        <v>2001</v>
+      <c r="Q8" s="28"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="27">
+        <v>2</v>
+      </c>
+      <c r="D9" s="94">
+        <v>2000</v>
       </c>
       <c r="E9" s="12">
         <v>1981</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="0"/>
-        <v>237</v>
+        <f>F8+11</f>
+        <v>225</v>
       </c>
       <c r="G9" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13">
-        <v>4</v>
+      <c r="K9" s="31">
+        <v>7</v>
+      </c>
+      <c r="L9" s="31">
+        <v>1</v>
       </c>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="29"/>
-    </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="28">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>2002</v>
+      <c r="Q9" s="28"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="27">
+        <v>2</v>
+      </c>
+      <c r="D10" s="94">
+        <v>2001</v>
       </c>
       <c r="E10" s="12">
         <v>1981</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G10" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13">
-        <v>3</v>
-      </c>
-      <c r="M10" s="14">
-        <v>1</v>
-      </c>
-      <c r="N10" s="14">
-        <v>1</v>
-      </c>
-      <c r="O10" s="14">
-        <v>0</v>
-      </c>
-      <c r="P10" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="28">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12">
-        <v>2003</v>
+        <v>4</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="28"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="27">
+        <v>2</v>
+      </c>
+      <c r="D11" s="94">
+        <v>2002</v>
       </c>
       <c r="E11" s="12">
         <v>1981</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G11" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13">
-        <v>4</v>
-      </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="29"/>
-    </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="28">
+        <v>3</v>
+      </c>
+      <c r="M11" s="14">
         <v>1</v>
       </c>
-      <c r="D12" s="12">
-        <v>2004</v>
+      <c r="N11" s="14">
+        <v>1</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="27">
+        <v>2</v>
+      </c>
+      <c r="D12" s="94">
+        <v>2003</v>
       </c>
       <c r="E12" s="12">
         <v>1981</v>
       </c>
       <c r="F12" s="12">
-        <f>F11+10</f>
-        <v>271</v>
+        <f t="shared" si="0"/>
+        <v>261</v>
       </c>
       <c r="G12" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="29"/>
-    </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C13" s="28">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12">
-        <v>2005</v>
+      <c r="Q12" s="28"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="27">
+        <v>2</v>
+      </c>
+      <c r="D13" s="94">
+        <v>2004</v>
       </c>
       <c r="E13" s="12">
         <v>1981</v>
       </c>
       <c r="F13" s="12">
+        <f>F12+10</f>
+        <v>271</v>
+      </c>
+      <c r="G13" s="12">
+        <v>23</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13">
+        <v>7</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="28"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="27">
+        <v>2</v>
+      </c>
+      <c r="D14" s="94">
+        <v>2005</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1981</v>
+      </c>
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>283</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G14" s="12">
         <v>24</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H14" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13">
+      <c r="K14" s="13"/>
+      <c r="L14" s="13">
         <v>5</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M14" s="14">
         <v>0</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N14" s="14">
         <v>1</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O14" s="14">
         <v>0</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P14" s="14">
         <v>1</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q14" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C14" s="28">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="27">
+        <v>2</v>
+      </c>
+      <c r="D15" s="94">
         <v>2006</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>1981</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="12">
         <f t="shared" si="0"/>
         <v>295</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="12">
         <v>25</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H15" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13">
-        <v>1</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="29"/>
-    </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="28">
-        <v>1</v>
-      </c>
-      <c r="D15" s="12">
-        <v>2007</v>
-      </c>
-      <c r="E15" s="12">
-        <v>1981</v>
-      </c>
-      <c r="F15" s="12">
-        <f>F14+9</f>
-        <v>304</v>
-      </c>
-      <c r="G15" s="12">
-        <v>26</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="29"/>
-    </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="28">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12">
-        <v>2008</v>
+      <c r="Q15" s="28"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="27">
+        <v>2</v>
+      </c>
+      <c r="D16" s="94">
+        <v>2007</v>
       </c>
       <c r="E16" s="12">
         <v>1981</v>
       </c>
       <c r="F16" s="12">
+        <f>F15+9</f>
+        <v>304</v>
+      </c>
+      <c r="G16" s="12">
+        <v>26</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13">
+        <v>5</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="28"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C17" s="27">
+        <v>2</v>
+      </c>
+      <c r="D17" s="94">
+        <v>2008</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1981</v>
+      </c>
+      <c r="F17" s="12">
         <f t="shared" si="0"/>
         <v>316</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="12">
         <v>27</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H17" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13">
+      <c r="J17" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13">
         <v>6</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M17" s="14">
         <v>1</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N17" s="14">
         <v>1</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O17" s="14">
         <v>1</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P17" s="14">
         <v>0</v>
       </c>
-      <c r="Q16" s="29">
+      <c r="Q17" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C17" s="28">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C18" s="27">
+        <v>2</v>
+      </c>
+      <c r="D18" s="94">
         <v>2009</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E18" s="12">
         <v>1981</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F18" s="12">
         <f t="shared" si="0"/>
         <v>328</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G18" s="12">
         <v>28</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H18" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13">
+      <c r="J18" s="5"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13">
         <v>7</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="29"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C18" s="30">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15">
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="28"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" s="29">
+        <v>2</v>
+      </c>
+      <c r="D19" s="95">
         <v>2010</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="15">
         <v>1981</v>
       </c>
-      <c r="F18" s="15">
-        <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-      <c r="G18" s="15">
+      <c r="F19" s="15">
+        <f>F17+12</f>
+        <v>328</v>
+      </c>
+      <c r="G19" s="15">
         <v>29</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16">
+      <c r="J19" s="7"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16">
         <v>8</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="31"/>
-    </row>
-    <row r="19" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="7" t="s">
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="30"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" s="29">
+        <v>3</v>
+      </c>
+      <c r="D20" s="95">
+        <v>1997</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1982</v>
+      </c>
+      <c r="F20" s="15">
+        <v>178</v>
+      </c>
+      <c r="G20" s="15">
+        <v>15</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="16">
+        <v>2</v>
+      </c>
+      <c r="L20" s="16">
+        <v>8</v>
+      </c>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="30"/>
+    </row>
+    <row r="21" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="E21" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="F21" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="G21" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="H21" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="I21" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J21" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="K21" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="J20" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="K20" s="34" t="s">
+      <c r="L21" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="L20" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="M20" s="7" t="s">
+      <c r="M21" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N21" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O21" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D21" s="18">
-        <v>15</v>
-      </c>
-      <c r="E21" s="18">
-        <v>5</v>
-      </c>
-      <c r="F21" s="18">
-        <v>80</v>
-      </c>
-      <c r="G21" s="18">
-        <v>15</v>
-      </c>
-      <c r="H21" s="18">
-        <v>2</v>
-      </c>
-      <c r="I21" s="8">
-        <v>4</v>
-      </c>
-      <c r="J21" s="18">
-        <v>36</v>
-      </c>
-      <c r="K21" s="19">
-        <v>7</v>
-      </c>
-      <c r="L21" s="19">
-        <v>8</v>
-      </c>
-      <c r="M21" s="8">
-        <v>2</v>
-      </c>
-      <c r="N21" s="8">
-        <v>2</v>
-      </c>
-      <c r="O21" s="8">
-        <v>2</v>
-      </c>
-      <c r="P21" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
-      <c r="C22" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
+      <c r="C22" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="18">
+        <v>15</v>
+      </c>
+      <c r="E22" s="18">
+        <v>5</v>
+      </c>
+      <c r="F22" s="18">
+        <v>80</v>
+      </c>
+      <c r="G22" s="18">
+        <v>15</v>
+      </c>
+      <c r="H22" s="18">
+        <v>2</v>
+      </c>
+      <c r="I22" s="8">
+        <v>4</v>
+      </c>
+      <c r="J22" s="18">
+        <v>36</v>
+      </c>
+      <c r="K22" s="19">
+        <v>7</v>
+      </c>
+      <c r="L22" s="19">
+        <v>8</v>
+      </c>
+      <c r="M22" s="8">
+        <v>2</v>
+      </c>
+      <c r="N22" s="8">
+        <v>2</v>
+      </c>
+      <c r="O22" s="8">
+        <v>2</v>
+      </c>
+      <c r="P22" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
-      <c r="C23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>248</v>
-      </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
+      <c r="C23" s="94" t="s">
+        <v>218</v>
+      </c>
+      <c r="D23" s="104" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
     </row>
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" s="61" t="s">
-        <v>249</v>
-      </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
+        <v>48</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>251</v>
-      </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-    </row>
-    <row r="26" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="D25" s="105" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+    </row>
+    <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-    </row>
-    <row r="27" spans="2:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="13" t="s">
+      <c r="C26" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+    </row>
+    <row r="27" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+    </row>
+    <row r="28" spans="2:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="20"/>
+    </row>
+    <row r="29" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="20"/>
-    </row>
-    <row r="28" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="21"/>
-    </row>
-    <row r="29" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="102" t="s">
+        <v>245</v>
+      </c>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="21"/>
+    </row>
+    <row r="30" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="103" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="21"/>
-    </row>
-    <row r="30" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
       <c r="R30" s="21"/>
     </row>
     <row r="31" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
+        <v>226</v>
+      </c>
+      <c r="D31" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
       <c r="R31" s="21"/>
     </row>
     <row r="32" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
+        <v>227</v>
+      </c>
+      <c r="D32" s="96" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="96"/>
       <c r="R32" s="21"/>
     </row>
     <row r="33" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="2" t="s">
-        <v>247</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D33" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="21"/>
     </row>
     <row r="34" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="96"/>
+      <c r="Q34" s="96"/>
+      <c r="R34" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="3:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-    </row>
-    <row r="36" spans="3:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="22" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="96"/>
+      <c r="R35" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="3:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="22" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="106"/>
+      <c r="N38" s="106"/>
+      <c r="O38" s="106"/>
+      <c r="P38" s="106"/>
+      <c r="Q38" s="106"/>
+      <c r="R38" s="106"/>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="106"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
+      <c r="O39" s="106"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="106"/>
+      <c r="R39" s="106"/>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="106"/>
+      <c r="O40" s="106"/>
+      <c r="P40" s="106"/>
+      <c r="Q40" s="106"/>
+      <c r="R40" s="106"/>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="106"/>
+      <c r="L41" s="106"/>
+      <c r="M41" s="106"/>
+      <c r="N41" s="106"/>
+      <c r="O41" s="106"/>
+      <c r="P41" s="106"/>
+      <c r="Q41" s="106"/>
+      <c r="R41" s="106"/>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
+      <c r="L42" s="106"/>
+      <c r="M42" s="106"/>
+      <c r="N42" s="106"/>
+      <c r="O42" s="106"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="106"/>
+      <c r="R42" s="106"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D37:R37"/>
+  <mergeCells count="20">
     <mergeCell ref="D38:R38"/>
     <mergeCell ref="D39:R39"/>
     <mergeCell ref="D40:R40"/>
     <mergeCell ref="D41:R41"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D42:R42"/>
+    <mergeCell ref="D35:Q35"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="D27:Q27"/>
     <mergeCell ref="D28:Q28"/>
     <mergeCell ref="D29:Q29"/>
     <mergeCell ref="D30:Q30"/>
     <mergeCell ref="D31:Q31"/>
     <mergeCell ref="D32:Q32"/>
     <mergeCell ref="D33:Q33"/>
-    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D34:Q34"/>
     <mergeCell ref="D23:Q23"/>
     <mergeCell ref="D24:Q24"/>
     <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="D26:Q26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F15 F12 F8" formula="1"/>
+    <ignoredError sqref="F16 F13 F9" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="13" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="3" customWidth="1"/>
+    <col min="10" max="12" width="8.7109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O1" s="83" t="s">
+        <v>347</v>
+      </c>
+      <c r="P1" s="85">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="83" t="s">
+        <v>347</v>
+      </c>
+      <c r="R1" s="85">
+        <v>1</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="98"/>
+      <c r="G2" s="111" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="111"/>
+      <c r="I2" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
+      <c r="O2" s="84" t="s">
+        <v>347</v>
+      </c>
+      <c r="P2" s="86">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="84" t="s">
+        <v>347</v>
+      </c>
+      <c r="R2" s="86">
+        <v>2</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C4" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="K4" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="L4" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="M4" s="91" t="s">
+        <v>335</v>
+      </c>
+      <c r="N4" s="91" t="s">
+        <v>336</v>
+      </c>
+      <c r="O4" s="112" t="s">
+        <v>348</v>
+      </c>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112" t="s">
+        <v>349</v>
+      </c>
+      <c r="R4" s="112"/>
+      <c r="S4" s="91" t="s">
+        <v>350</v>
+      </c>
+      <c r="T4" s="91" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="37">
+        <v>2010</v>
+      </c>
+      <c r="C5" s="42">
+        <v>1</v>
+      </c>
+      <c r="D5" s="76">
+        <v>1</v>
+      </c>
+      <c r="E5" s="71">
+        <v>1982</v>
+      </c>
+      <c r="F5" s="71">
+        <v>2</v>
+      </c>
+      <c r="G5" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H5" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I5" s="72">
+        <v>2010</v>
+      </c>
+      <c r="J5" s="75">
+        <v>10</v>
+      </c>
+      <c r="K5" s="71">
+        <v>100</v>
+      </c>
+      <c r="L5" s="73">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="94">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="41">
+        <v>2</v>
+      </c>
+      <c r="D6" s="76">
+        <v>6</v>
+      </c>
+      <c r="E6" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F6" s="71">
+        <v>4</v>
+      </c>
+      <c r="G6" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H6" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I6" s="72">
+        <v>2000</v>
+      </c>
+      <c r="J6" s="75">
+        <v>0</v>
+      </c>
+      <c r="K6" s="71">
+        <v>0</v>
+      </c>
+      <c r="L6" s="73">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="87">
+        <v>0</v>
+      </c>
+      <c r="P6" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="87">
+        <v>-5</v>
+      </c>
+      <c r="R6" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="94">
+        <v>2001</v>
+      </c>
+      <c r="C7" s="41">
+        <v>2</v>
+      </c>
+      <c r="D7" s="76">
+        <v>2</v>
+      </c>
+      <c r="E7" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F7" s="71">
+        <v>4</v>
+      </c>
+      <c r="G7" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H7" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I7" s="72">
+        <v>2001</v>
+      </c>
+      <c r="J7" s="75">
+        <v>1</v>
+      </c>
+      <c r="K7" s="71">
+        <v>1</v>
+      </c>
+      <c r="L7" s="73">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="O7" s="87">
+        <v>1</v>
+      </c>
+      <c r="P7" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="87">
+        <v>-4</v>
+      </c>
+      <c r="R7" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="94">
+        <v>2002</v>
+      </c>
+      <c r="C8" s="41">
+        <v>2</v>
+      </c>
+      <c r="D8" s="76">
+        <v>6</v>
+      </c>
+      <c r="E8" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F8" s="71">
+        <v>4</v>
+      </c>
+      <c r="G8" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H8" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I8" s="72">
+        <v>2002</v>
+      </c>
+      <c r="J8" s="75">
+        <v>2</v>
+      </c>
+      <c r="K8" s="71">
+        <v>4</v>
+      </c>
+      <c r="L8" s="73">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="O8" s="87">
+        <v>2</v>
+      </c>
+      <c r="P8" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="87">
+        <v>-3</v>
+      </c>
+      <c r="R8" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="94">
+        <v>2003</v>
+      </c>
+      <c r="C9" s="41">
+        <v>2</v>
+      </c>
+      <c r="D9" s="76">
+        <v>6</v>
+      </c>
+      <c r="E9" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F9" s="71">
+        <v>4</v>
+      </c>
+      <c r="G9" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H9" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I9" s="72">
+        <v>2003</v>
+      </c>
+      <c r="J9" s="75">
+        <v>3</v>
+      </c>
+      <c r="K9" s="71">
+        <v>9</v>
+      </c>
+      <c r="L9" s="73">
+        <v>27</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="O9" s="87">
+        <v>3</v>
+      </c>
+      <c r="P9" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="87">
+        <v>-2</v>
+      </c>
+      <c r="R9" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="94">
+        <v>2004</v>
+      </c>
+      <c r="C10" s="41">
+        <v>2</v>
+      </c>
+      <c r="D10" s="76">
+        <v>2</v>
+      </c>
+      <c r="E10" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F10" s="71">
+        <v>4</v>
+      </c>
+      <c r="G10" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H10" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I10" s="72">
+        <v>2004</v>
+      </c>
+      <c r="J10" s="75">
+        <v>4</v>
+      </c>
+      <c r="K10" s="71">
+        <v>16</v>
+      </c>
+      <c r="L10" s="73">
+        <v>64</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="O10" s="87">
+        <v>4</v>
+      </c>
+      <c r="P10" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="87">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="94">
+        <v>2005</v>
+      </c>
+      <c r="C11" s="41">
+        <v>2</v>
+      </c>
+      <c r="D11" s="76">
+        <v>6</v>
+      </c>
+      <c r="E11" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F11" s="71">
+        <v>4</v>
+      </c>
+      <c r="G11" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H11" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I11" s="72">
+        <v>2005</v>
+      </c>
+      <c r="J11" s="75">
+        <v>5</v>
+      </c>
+      <c r="K11" s="71">
+        <v>25</v>
+      </c>
+      <c r="L11" s="73">
+        <v>125</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="O11" s="88">
+        <v>5</v>
+      </c>
+      <c r="P11" s="89">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="88">
+        <v>0</v>
+      </c>
+      <c r="R11" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="94">
+        <v>2006</v>
+      </c>
+      <c r="C12" s="41">
+        <v>2</v>
+      </c>
+      <c r="D12" s="76">
+        <v>6</v>
+      </c>
+      <c r="E12" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F12" s="71">
+        <v>4</v>
+      </c>
+      <c r="G12" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H12" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I12" s="72">
+        <v>2006</v>
+      </c>
+      <c r="J12" s="75">
+        <v>6</v>
+      </c>
+      <c r="K12" s="71">
+        <v>36</v>
+      </c>
+      <c r="L12" s="73">
+        <v>216</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="O12" s="90">
+        <v>5</v>
+      </c>
+      <c r="P12" s="90">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="90">
+        <v>0</v>
+      </c>
+      <c r="R12" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="94">
+        <v>2007</v>
+      </c>
+      <c r="C13" s="41">
+        <v>2</v>
+      </c>
+      <c r="D13" s="76">
+        <v>7</v>
+      </c>
+      <c r="E13" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F13" s="71">
+        <v>4</v>
+      </c>
+      <c r="G13" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H13" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I13" s="72">
+        <v>2007</v>
+      </c>
+      <c r="J13" s="75">
+        <v>7</v>
+      </c>
+      <c r="K13" s="71">
+        <v>49</v>
+      </c>
+      <c r="L13" s="73">
+        <v>343</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="O13" s="90">
+        <v>5</v>
+      </c>
+      <c r="P13" s="90">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="90">
+        <v>0</v>
+      </c>
+      <c r="R13" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="94">
+        <v>2008</v>
+      </c>
+      <c r="C14" s="41">
+        <v>2</v>
+      </c>
+      <c r="D14" s="76">
+        <v>6</v>
+      </c>
+      <c r="E14" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F14" s="71">
+        <v>4</v>
+      </c>
+      <c r="G14" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H14" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I14" s="72">
+        <v>2008</v>
+      </c>
+      <c r="J14" s="75">
+        <v>8</v>
+      </c>
+      <c r="K14" s="71">
+        <v>64</v>
+      </c>
+      <c r="L14" s="73">
+        <v>512</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="O14" s="90">
+        <v>5</v>
+      </c>
+      <c r="P14" s="90">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="90">
+        <v>0</v>
+      </c>
+      <c r="R14" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="94">
+        <v>2009</v>
+      </c>
+      <c r="C15" s="41">
+        <v>2</v>
+      </c>
+      <c r="D15" s="76">
+        <v>2</v>
+      </c>
+      <c r="E15" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F15" s="71">
+        <v>4</v>
+      </c>
+      <c r="G15" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H15" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I15" s="72">
+        <v>2009</v>
+      </c>
+      <c r="J15" s="75">
+        <v>9</v>
+      </c>
+      <c r="K15" s="71">
+        <v>81</v>
+      </c>
+      <c r="L15" s="73">
+        <v>729</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="O15" s="90">
+        <v>5</v>
+      </c>
+      <c r="P15" s="90">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="90">
+        <v>0</v>
+      </c>
+      <c r="R15" s="90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="95">
+        <v>2010</v>
+      </c>
+      <c r="C16" s="41">
+        <v>2</v>
+      </c>
+      <c r="D16" s="76">
+        <v>6</v>
+      </c>
+      <c r="E16" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F16" s="71">
+        <v>4</v>
+      </c>
+      <c r="G16" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H16" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I16" s="72">
+        <v>2010</v>
+      </c>
+      <c r="J16" s="75">
+        <v>10</v>
+      </c>
+      <c r="K16" s="71">
+        <v>100</v>
+      </c>
+      <c r="L16" s="73">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="90">
+        <v>5</v>
+      </c>
+      <c r="P16" s="90">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="90">
+        <v>0</v>
+      </c>
+      <c r="R16" s="90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="94">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="61">
+        <v>3</v>
+      </c>
+      <c r="D17" s="76">
+        <v>7</v>
+      </c>
+      <c r="E17" s="71">
+        <v>1981</v>
+      </c>
+      <c r="F17" s="71">
+        <v>1</v>
+      </c>
+      <c r="G17" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H17" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I17" s="72">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="75">
+        <v>0</v>
+      </c>
+      <c r="K17" s="71">
+        <v>0</v>
+      </c>
+      <c r="L17" s="73">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+    </row>
+    <row r="18" spans="2:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+    </row>
+    <row r="19" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="109" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+    </row>
+    <row r="20" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+    </row>
+    <row r="21" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="113" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+    </row>
+    <row r="22" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" s="113" t="s">
+        <v>329</v>
+      </c>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+    </row>
+    <row r="23" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="80" t="s">
+        <v>311</v>
+      </c>
+      <c r="D23" s="113" t="s">
+        <v>327</v>
+      </c>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+    </row>
+    <row r="24" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="81" t="s">
+        <v>333</v>
+      </c>
+      <c r="D24" s="102" t="s">
+        <v>328</v>
+      </c>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+    </row>
+    <row r="25" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="D25" s="113" t="s">
+        <v>249</v>
+      </c>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+    </row>
+    <row r="26" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="D26" s="102" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+    </row>
+    <row r="27" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+    </row>
+    <row r="28" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="68" t="s">
+        <v>320</v>
+      </c>
+      <c r="D28" s="113" t="s">
+        <v>332</v>
+      </c>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+    </row>
+    <row r="29" spans="2:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="D19:I19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L33"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="13" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="3" customWidth="1"/>
+    <col min="10" max="12" width="8.7109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="98"/>
+      <c r="G2" s="111" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="111"/>
+      <c r="I2" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
+    </row>
+    <row r="3" spans="2:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="K4" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="L4" s="70" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C5" s="41">
+        <v>245</v>
+      </c>
+      <c r="D5" s="76">
+        <v>6</v>
+      </c>
+      <c r="E5" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F5" s="71">
+        <v>4</v>
+      </c>
+      <c r="G5" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H5" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I5" s="72">
+        <v>2000</v>
+      </c>
+      <c r="J5" s="75">
+        <v>0</v>
+      </c>
+      <c r="K5" s="71">
+        <v>0</v>
+      </c>
+      <c r="L5" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="41">
+        <v>245</v>
+      </c>
+      <c r="D6" s="76">
+        <v>2</v>
+      </c>
+      <c r="E6" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F6" s="71">
+        <v>4</v>
+      </c>
+      <c r="G6" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H6" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I6" s="72">
+        <v>2001</v>
+      </c>
+      <c r="J6" s="75">
+        <v>1</v>
+      </c>
+      <c r="K6" s="71">
+        <v>1</v>
+      </c>
+      <c r="L6" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="41">
+        <v>245</v>
+      </c>
+      <c r="D7" s="76">
+        <v>6</v>
+      </c>
+      <c r="E7" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F7" s="71">
+        <v>4</v>
+      </c>
+      <c r="G7" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H7" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I7" s="72">
+        <v>2002</v>
+      </c>
+      <c r="J7" s="75">
+        <v>2</v>
+      </c>
+      <c r="K7" s="71">
+        <v>4</v>
+      </c>
+      <c r="L7" s="73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="41">
+        <v>245</v>
+      </c>
+      <c r="D8" s="76">
+        <v>6</v>
+      </c>
+      <c r="E8" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F8" s="71">
+        <v>4</v>
+      </c>
+      <c r="G8" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H8" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I8" s="72">
+        <v>2003</v>
+      </c>
+      <c r="J8" s="75">
+        <v>3</v>
+      </c>
+      <c r="K8" s="71">
+        <v>9</v>
+      </c>
+      <c r="L8" s="73">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="41">
+        <v>245</v>
+      </c>
+      <c r="D9" s="76">
+        <v>2</v>
+      </c>
+      <c r="E9" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F9" s="71">
+        <v>4</v>
+      </c>
+      <c r="G9" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H9" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I9" s="72">
+        <v>2004</v>
+      </c>
+      <c r="J9" s="75">
+        <v>4</v>
+      </c>
+      <c r="K9" s="71">
+        <v>16</v>
+      </c>
+      <c r="L9" s="73">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="41">
+        <v>245</v>
+      </c>
+      <c r="D10" s="76">
+        <v>6</v>
+      </c>
+      <c r="E10" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F10" s="71">
+        <v>4</v>
+      </c>
+      <c r="G10" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H10" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I10" s="72">
+        <v>2005</v>
+      </c>
+      <c r="J10" s="75">
+        <v>5</v>
+      </c>
+      <c r="K10" s="71">
+        <v>25</v>
+      </c>
+      <c r="L10" s="73">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="41">
+        <v>245</v>
+      </c>
+      <c r="D11" s="76">
+        <v>6</v>
+      </c>
+      <c r="E11" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F11" s="71">
+        <v>4</v>
+      </c>
+      <c r="G11" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H11" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I11" s="72">
+        <v>2006</v>
+      </c>
+      <c r="J11" s="75">
+        <v>6</v>
+      </c>
+      <c r="K11" s="71">
+        <v>36</v>
+      </c>
+      <c r="L11" s="73">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="41">
+        <v>245</v>
+      </c>
+      <c r="D12" s="76">
+        <v>7</v>
+      </c>
+      <c r="E12" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F12" s="71">
+        <v>4</v>
+      </c>
+      <c r="G12" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H12" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I12" s="72">
+        <v>2007</v>
+      </c>
+      <c r="J12" s="75">
+        <v>7</v>
+      </c>
+      <c r="K12" s="71">
+        <v>49</v>
+      </c>
+      <c r="L12" s="73">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="41">
+        <v>245</v>
+      </c>
+      <c r="D13" s="76">
+        <v>6</v>
+      </c>
+      <c r="E13" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F13" s="71">
+        <v>4</v>
+      </c>
+      <c r="G13" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H13" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I13" s="72">
+        <v>2008</v>
+      </c>
+      <c r="J13" s="75">
+        <v>8</v>
+      </c>
+      <c r="K13" s="71">
+        <v>64</v>
+      </c>
+      <c r="L13" s="73">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="41">
+        <v>245</v>
+      </c>
+      <c r="D14" s="76">
+        <v>2</v>
+      </c>
+      <c r="E14" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F14" s="71">
+        <v>4</v>
+      </c>
+      <c r="G14" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H14" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I14" s="72">
+        <v>2009</v>
+      </c>
+      <c r="J14" s="75">
+        <v>9</v>
+      </c>
+      <c r="K14" s="71">
+        <v>81</v>
+      </c>
+      <c r="L14" s="73">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="41">
+        <v>245</v>
+      </c>
+      <c r="D15" s="76">
+        <v>6</v>
+      </c>
+      <c r="E15" s="71">
+        <v>1984</v>
+      </c>
+      <c r="F15" s="71">
+        <v>4</v>
+      </c>
+      <c r="G15" s="65">
+        <v>16.5833333333333</v>
+      </c>
+      <c r="H15" s="74">
+        <v>0.58333333333329995</v>
+      </c>
+      <c r="I15" s="72">
+        <v>2010</v>
+      </c>
+      <c r="J15" s="75">
+        <v>10</v>
+      </c>
+      <c r="K15" s="71">
+        <v>100</v>
+      </c>
+      <c r="L15" s="73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="109" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="113" t="s">
+        <v>326</v>
+      </c>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" s="113" t="s">
+        <v>329</v>
+      </c>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="80" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" s="113" t="s">
+        <v>327</v>
+      </c>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+    </row>
+    <row r="22" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="81" t="s">
+        <v>333</v>
+      </c>
+      <c r="D22" s="102" t="s">
+        <v>328</v>
+      </c>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+    </row>
+    <row r="23" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23" s="113" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="D24" s="102" t="s">
+        <v>330</v>
+      </c>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+    </row>
+    <row r="25" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="D25" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+    </row>
+    <row r="26" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="68" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" s="113" t="s">
+        <v>332</v>
+      </c>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+    </row>
+    <row r="27" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="str">
+        <f>LEFT(A1,9)</f>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E1" t="str">
+        <f>MID(A1,10,9)</f>
+        <v xml:space="preserve">A0001200 </v>
+      </c>
+      <c r="F1" t="str">
+        <f>MID(A1,18,10)</f>
+        <v xml:space="preserve"> vx0f.;</v>
+      </c>
+      <c r="H1" t="str">
+        <f>D1</f>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" ref="J1" si="0">F1</f>
+        <v xml:space="preserve"> vx0f.;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D52" si="1">LEFT(A2,9)</f>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E52" si="2">MID(A2,10,9)</f>
+        <v xml:space="preserve">R0000100 </v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F52" si="3">MID(A2,18,10)</f>
+        <v xml:space="preserve"> vx1f.;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H52" si="4">D2</f>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J52" si="5">F2</f>
+        <v xml:space="preserve"> vx1f.;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R0002100 </v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx2f.;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx2f.;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R0323900 </v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx3f.;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx3f.;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R0536300 </v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx4f.;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx4f.;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R0536401 </v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx5f.;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx5f.;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R0552200 </v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx7f.;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx7f.;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R0624400 </v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx8f.;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx8f.;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R0624500 </v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx9f.;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx9f.;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R0624600 </v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx10f.;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx10f.;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R0624700 </v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx11f.;</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx11f.;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R0624800 </v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx12f.;</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx12f.;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R0624900 </v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx13f.;</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx13f.;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R0625000 </v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx14f.;</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx14f.;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R0625100 </v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx15f.;</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx15f.;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R0625200 </v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx16f.;</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx16f.;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R1235800 </v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx17f.;</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx17f.;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R1482600 </v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx18f.;</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx18f.;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R1486900 </v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx19f.;</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I19" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx19f.;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R2165200 </v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx20f.;</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I20" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx20f.;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R3483100 </v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx21f.;</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx21f.;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R4881300 </v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx22f.;</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx22f.;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R4893400 </v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx23f.;</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I23" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx23f.;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">R6520100 </v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx24f.;</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx24f.;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S0919300 </v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx25f.;</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx25f.;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S0919400 </v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx26f.;</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx26f.;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S0919500 </v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx27f.;</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I27" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx27f.;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S0919600 </v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx28f.;</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I28" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx28f.;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S0919700 </v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx29f.;</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I29" t="s">
+        <v>121</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx29f.;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S0919800 </v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx30f.;</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I30" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx30f.;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S2987800 </v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx31f.;</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I31" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx31f.;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S4681700 </v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx32f.;</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx32f.;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S6316700 </v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx33f.;</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx33f.;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S6316800 </v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx34f.;</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx34f.;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S6316900 </v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx35f.;</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I35" t="s">
+        <v>124</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx35f.;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S6317000 </v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx36f.;</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I36" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx36f.;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S6317100 </v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx37f.;</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I37" t="s">
+        <v>126</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx37f.;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S6317200 </v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx38f.;</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I38" t="s">
+        <v>127</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx38f.;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S8331500 </v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx39f.;</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I39" t="s">
+        <v>128</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx39f.;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S8331700 </v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx40f.;</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I40" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx40f.;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S8331800 </v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx41f.;</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx41f.;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S8331900 </v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx42f.;</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I42" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx42f.;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S8332000 </v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx43f.;</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I43" t="s">
+        <v>131</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx43f.;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">S8332100 </v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx44f.;</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I44" t="s">
+        <v>132</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx44f.;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">T0739400 </v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx45f.;</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I45" t="s">
+        <v>133</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx45f.;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">T2781700 </v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx46f.;</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I46" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx46f.;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">T2781900 </v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx47f.;</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I47" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx47f.;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">T2782000 </v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx48f.;</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx48f.;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">T2782100 </v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx49f.;</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I49" t="s">
+        <v>135</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx49f.;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">T2782200 </v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx50f.;</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I50" t="s">
+        <v>136</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx50f.;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">T2782300 </v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx51f.;</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I51" t="s">
+        <v>137</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx51f.;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">T2782400 </v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> vx52f.; </v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  format </v>
+      </c>
+      <c r="I52" t="s">
+        <v>138</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> vx52f.; </v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -5218,26 +8625,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="D2" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="65" t="s">
+      <c r="E2" s="98" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="98"/>
+      <c r="G2" s="111" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="111"/>
+      <c r="I2" s="107" t="s">
         <v>322</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="77" t="s">
-        <v>323</v>
-      </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
     </row>
     <row r="3" spans="3:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
@@ -5248,42 +8655,42 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="67" t="s">
-        <v>314</v>
-      </c>
-      <c r="E4" s="43" t="s">
+      <c r="D4" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="K4" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="G4" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="K4" s="45" t="s">
+      <c r="L4" s="44" t="s">
         <v>320</v>
       </c>
-      <c r="L4" s="45" t="s">
-        <v>321</v>
-      </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>244</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="58">
         <v>2</v>
       </c>
       <c r="E5" s="9">
@@ -5292,13 +8699,13 @@
       <c r="F5" s="9">
         <v>3</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <v>17.25</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="38">
         <v>1.25</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="39">
         <v>2010</v>
       </c>
       <c r="J5" s="9">
@@ -5307,367 +8714,367 @@
       <c r="K5" s="9">
         <v>100</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="48">
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>245</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="60">
         <v>6</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="61">
         <v>1984</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="61">
         <v>4</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="62">
         <v>16.5833333333333</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="34">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I6" s="74">
+      <c r="I6" s="63">
         <v>2000</v>
       </c>
       <c r="J6" s="13">
         <v>0</v>
       </c>
-      <c r="K6" s="72">
+      <c r="K6" s="61">
         <v>0</v>
       </c>
-      <c r="L6" s="75">
+      <c r="L6" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>245</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="60">
         <v>2</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="61">
         <v>1984</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="61">
         <v>4</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="62">
         <v>16.5833333333333</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="34">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I7" s="74">
+      <c r="I7" s="63">
         <v>2001</v>
       </c>
       <c r="J7" s="13">
         <v>1</v>
       </c>
-      <c r="K7" s="72">
+      <c r="K7" s="61">
         <v>1</v>
       </c>
-      <c r="L7" s="75">
+      <c r="L7" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>245</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="60">
         <v>6</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="61">
         <v>1984</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="61">
         <v>4</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="62">
         <v>16.5833333333333</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="34">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="63">
         <v>2002</v>
       </c>
       <c r="J8" s="13">
         <v>2</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K8" s="61">
         <v>4</v>
       </c>
-      <c r="L8" s="75">
+      <c r="L8" s="64">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="42">
+      <c r="C9" s="41">
         <v>245</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="60">
         <v>6</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="61">
         <v>1984</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="61">
         <v>4</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="62">
         <v>16.5833333333333</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="34">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I9" s="74">
+      <c r="I9" s="63">
         <v>2003</v>
       </c>
       <c r="J9" s="13">
         <v>3</v>
       </c>
-      <c r="K9" s="72">
+      <c r="K9" s="61">
         <v>9</v>
       </c>
-      <c r="L9" s="75">
+      <c r="L9" s="64">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>245</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="60">
         <v>2</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="61">
         <v>1984</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="61">
         <v>4</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="62">
         <v>16.5833333333333</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="34">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I10" s="74">
+      <c r="I10" s="63">
         <v>2004</v>
       </c>
       <c r="J10" s="13">
         <v>4</v>
       </c>
-      <c r="K10" s="72">
+      <c r="K10" s="61">
         <v>16</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="64">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="42">
+      <c r="C11" s="41">
         <v>245</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="60">
         <v>6</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="61">
         <v>1984</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="61">
         <v>4</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="62">
         <v>16.5833333333333</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="34">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="63">
         <v>2005</v>
       </c>
       <c r="J11" s="13">
         <v>5</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="61">
         <v>25</v>
       </c>
-      <c r="L11" s="75">
+      <c r="L11" s="64">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <v>245</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="60">
         <v>6</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="61">
         <v>1984</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="61">
         <v>4</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="62">
         <v>16.5833333333333</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="34">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="63">
         <v>2006</v>
       </c>
       <c r="J12" s="13">
         <v>6</v>
       </c>
-      <c r="K12" s="72">
+      <c r="K12" s="61">
         <v>36</v>
       </c>
-      <c r="L12" s="75">
+      <c r="L12" s="64">
         <v>216</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="42">
+      <c r="C13" s="41">
         <v>245</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="60">
         <v>7</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="61">
         <v>1984</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="61">
         <v>4</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="62">
         <v>16.5833333333333</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="34">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I13" s="74">
+      <c r="I13" s="63">
         <v>2007</v>
       </c>
       <c r="J13" s="13">
         <v>7</v>
       </c>
-      <c r="K13" s="72">
+      <c r="K13" s="61">
         <v>49</v>
       </c>
-      <c r="L13" s="75">
+      <c r="L13" s="64">
         <v>343</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="42">
+      <c r="C14" s="41">
         <v>245</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="60">
         <v>6</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="61">
         <v>1984</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="61">
         <v>4</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="62">
         <v>16.5833333333333</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="34">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I14" s="74">
+      <c r="I14" s="63">
         <v>2008</v>
       </c>
       <c r="J14" s="13">
         <v>8</v>
       </c>
-      <c r="K14" s="72">
+      <c r="K14" s="61">
         <v>64</v>
       </c>
-      <c r="L14" s="75">
+      <c r="L14" s="64">
         <v>512</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="42">
+      <c r="C15" s="41">
         <v>245</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="60">
         <v>2</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="61">
         <v>1984</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="61">
         <v>4</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="62">
         <v>16.5833333333333</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="34">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I15" s="74">
+      <c r="I15" s="63">
         <v>2009</v>
       </c>
       <c r="J15" s="13">
         <v>9</v>
       </c>
-      <c r="K15" s="72">
+      <c r="K15" s="61">
         <v>81</v>
       </c>
-      <c r="L15" s="75">
+      <c r="L15" s="64">
         <v>729</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="42">
+      <c r="C16" s="41">
         <v>245</v>
       </c>
-      <c r="D16" s="71">
+      <c r="D16" s="60">
         <v>6</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="61">
         <v>1984</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="61">
         <v>4</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="62">
         <v>16.5833333333333</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="34">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I16" s="63">
         <v>2010</v>
       </c>
       <c r="J16" s="13">
         <v>10</v>
       </c>
-      <c r="K16" s="72">
+      <c r="K16" s="61">
         <v>100</v>
       </c>
-      <c r="L16" s="75">
+      <c r="L16" s="64">
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="30">
+      <c r="C17" s="29">
         <v>247</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D17" s="59">
         <v>1</v>
       </c>
       <c r="E17" s="7">
@@ -5676,13 +9083,13 @@
       <c r="F17" s="7">
         <v>2</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="35">
         <v>18.25</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="35">
         <v>2.25</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="36">
         <v>2000</v>
       </c>
       <c r="J17" s="7">
@@ -5691,203 +9098,203 @@
       <c r="K17" s="7">
         <v>0</v>
       </c>
-      <c r="L17" s="50">
+      <c r="L17" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
     </row>
     <row r="19" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
+      <c r="D19" s="109" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
     </row>
     <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="68" t="s">
-        <v>314</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>246</v>
-      </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
+      <c r="C20" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
     </row>
     <row r="21" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
     </row>
     <row r="22" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="109" t="s">
+        <v>326</v>
+      </c>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+    </row>
+    <row r="23" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="109" t="s">
+        <v>329</v>
+      </c>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" s="109" t="s">
         <v>327</v>
       </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-    </row>
-    <row r="23" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="51" t="s">
-        <v>319</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>330</v>
-      </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-    </row>
-    <row r="24" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="51" t="s">
-        <v>312</v>
-      </c>
-      <c r="D24" s="63" t="s">
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109"/>
+    </row>
+    <row r="25" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="D25" s="102" t="s">
         <v>328</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-    </row>
-    <row r="25" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>329</v>
-      </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
     </row>
     <row r="26" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
     </row>
     <row r="27" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
+      <c r="C27" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="D27" s="109" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
     </row>
     <row r="28" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="80" t="s">
-        <v>318</v>
-      </c>
-      <c r="D28" s="59" t="s">
+      <c r="C28" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="D28" s="102" t="s">
+        <v>330</v>
+      </c>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="D29" s="109" t="s">
         <v>331</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-    </row>
-    <row r="29" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="79" t="s">
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="66" t="s">
         <v>320</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D30" s="109" t="s">
         <v>332</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-    </row>
-    <row r="30" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="79" t="s">
-        <v>321</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
     </row>
     <row r="31" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
@@ -5899,52 +9306,51 @@
     </row>
     <row r="32" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C32" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D22:L22"/>
     <mergeCell ref="D23:L23"/>
     <mergeCell ref="D26:I26"/>
     <mergeCell ref="D28:L28"/>
@@ -5964,2172 +9370,9 @@
     <mergeCell ref="D24:L24"/>
     <mergeCell ref="D25:L25"/>
     <mergeCell ref="D29:L29"/>
+    <mergeCell ref="D22:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3" customWidth="1"/>
-    <col min="7" max="8" width="10.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="3" customWidth="1"/>
-    <col min="10" max="12" width="8.7109375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="65" t="s">
-        <v>322</v>
-      </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="77" t="s">
-        <v>323</v>
-      </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78"/>
-    </row>
-    <row r="3" spans="2:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="93" t="s">
-        <v>314</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>319</v>
-      </c>
-      <c r="G4" s="83" t="s">
-        <v>312</v>
-      </c>
-      <c r="H4" s="91" t="s">
-        <v>334</v>
-      </c>
-      <c r="I4" s="83" t="s">
-        <v>313</v>
-      </c>
-      <c r="J4" s="92" t="s">
-        <v>318</v>
-      </c>
-      <c r="K4" s="84" t="s">
-        <v>320</v>
-      </c>
-      <c r="L4" s="84" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="42">
-        <v>245</v>
-      </c>
-      <c r="D5" s="90">
-        <v>6</v>
-      </c>
-      <c r="E5" s="85">
-        <v>1984</v>
-      </c>
-      <c r="F5" s="85">
-        <v>4</v>
-      </c>
-      <c r="G5" s="76">
-        <v>16.5833333333333</v>
-      </c>
-      <c r="H5" s="88">
-        <v>0.58333333333329995</v>
-      </c>
-      <c r="I5" s="86">
-        <v>2000</v>
-      </c>
-      <c r="J5" s="89">
-        <v>0</v>
-      </c>
-      <c r="K5" s="85">
-        <v>0</v>
-      </c>
-      <c r="L5" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="42">
-        <v>245</v>
-      </c>
-      <c r="D6" s="90">
-        <v>2</v>
-      </c>
-      <c r="E6" s="85">
-        <v>1984</v>
-      </c>
-      <c r="F6" s="85">
-        <v>4</v>
-      </c>
-      <c r="G6" s="76">
-        <v>16.5833333333333</v>
-      </c>
-      <c r="H6" s="88">
-        <v>0.58333333333329995</v>
-      </c>
-      <c r="I6" s="86">
-        <v>2001</v>
-      </c>
-      <c r="J6" s="89">
-        <v>1</v>
-      </c>
-      <c r="K6" s="85">
-        <v>1</v>
-      </c>
-      <c r="L6" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="42">
-        <v>245</v>
-      </c>
-      <c r="D7" s="90">
-        <v>6</v>
-      </c>
-      <c r="E7" s="85">
-        <v>1984</v>
-      </c>
-      <c r="F7" s="85">
-        <v>4</v>
-      </c>
-      <c r="G7" s="76">
-        <v>16.5833333333333</v>
-      </c>
-      <c r="H7" s="88">
-        <v>0.58333333333329995</v>
-      </c>
-      <c r="I7" s="86">
-        <v>2002</v>
-      </c>
-      <c r="J7" s="89">
-        <v>2</v>
-      </c>
-      <c r="K7" s="85">
-        <v>4</v>
-      </c>
-      <c r="L7" s="87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="42">
-        <v>245</v>
-      </c>
-      <c r="D8" s="90">
-        <v>6</v>
-      </c>
-      <c r="E8" s="85">
-        <v>1984</v>
-      </c>
-      <c r="F8" s="85">
-        <v>4</v>
-      </c>
-      <c r="G8" s="76">
-        <v>16.5833333333333</v>
-      </c>
-      <c r="H8" s="88">
-        <v>0.58333333333329995</v>
-      </c>
-      <c r="I8" s="86">
-        <v>2003</v>
-      </c>
-      <c r="J8" s="89">
-        <v>3</v>
-      </c>
-      <c r="K8" s="85">
-        <v>9</v>
-      </c>
-      <c r="L8" s="87">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="42">
-        <v>245</v>
-      </c>
-      <c r="D9" s="90">
-        <v>2</v>
-      </c>
-      <c r="E9" s="85">
-        <v>1984</v>
-      </c>
-      <c r="F9" s="85">
-        <v>4</v>
-      </c>
-      <c r="G9" s="76">
-        <v>16.5833333333333</v>
-      </c>
-      <c r="H9" s="88">
-        <v>0.58333333333329995</v>
-      </c>
-      <c r="I9" s="86">
-        <v>2004</v>
-      </c>
-      <c r="J9" s="89">
-        <v>4</v>
-      </c>
-      <c r="K9" s="85">
-        <v>16</v>
-      </c>
-      <c r="L9" s="87">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="42">
-        <v>245</v>
-      </c>
-      <c r="D10" s="90">
-        <v>6</v>
-      </c>
-      <c r="E10" s="85">
-        <v>1984</v>
-      </c>
-      <c r="F10" s="85">
-        <v>4</v>
-      </c>
-      <c r="G10" s="76">
-        <v>16.5833333333333</v>
-      </c>
-      <c r="H10" s="88">
-        <v>0.58333333333329995</v>
-      </c>
-      <c r="I10" s="86">
-        <v>2005</v>
-      </c>
-      <c r="J10" s="89">
-        <v>5</v>
-      </c>
-      <c r="K10" s="85">
-        <v>25</v>
-      </c>
-      <c r="L10" s="87">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="42">
-        <v>245</v>
-      </c>
-      <c r="D11" s="90">
-        <v>6</v>
-      </c>
-      <c r="E11" s="85">
-        <v>1984</v>
-      </c>
-      <c r="F11" s="85">
-        <v>4</v>
-      </c>
-      <c r="G11" s="76">
-        <v>16.5833333333333</v>
-      </c>
-      <c r="H11" s="88">
-        <v>0.58333333333329995</v>
-      </c>
-      <c r="I11" s="86">
-        <v>2006</v>
-      </c>
-      <c r="J11" s="89">
-        <v>6</v>
-      </c>
-      <c r="K11" s="85">
-        <v>36</v>
-      </c>
-      <c r="L11" s="87">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="42">
-        <v>245</v>
-      </c>
-      <c r="D12" s="90">
-        <v>7</v>
-      </c>
-      <c r="E12" s="85">
-        <v>1984</v>
-      </c>
-      <c r="F12" s="85">
-        <v>4</v>
-      </c>
-      <c r="G12" s="76">
-        <v>16.5833333333333</v>
-      </c>
-      <c r="H12" s="88">
-        <v>0.58333333333329995</v>
-      </c>
-      <c r="I12" s="86">
-        <v>2007</v>
-      </c>
-      <c r="J12" s="89">
-        <v>7</v>
-      </c>
-      <c r="K12" s="85">
-        <v>49</v>
-      </c>
-      <c r="L12" s="87">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="42">
-        <v>245</v>
-      </c>
-      <c r="D13" s="90">
-        <v>6</v>
-      </c>
-      <c r="E13" s="85">
-        <v>1984</v>
-      </c>
-      <c r="F13" s="85">
-        <v>4</v>
-      </c>
-      <c r="G13" s="76">
-        <v>16.5833333333333</v>
-      </c>
-      <c r="H13" s="88">
-        <v>0.58333333333329995</v>
-      </c>
-      <c r="I13" s="86">
-        <v>2008</v>
-      </c>
-      <c r="J13" s="89">
-        <v>8</v>
-      </c>
-      <c r="K13" s="85">
-        <v>64</v>
-      </c>
-      <c r="L13" s="87">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="42">
-        <v>245</v>
-      </c>
-      <c r="D14" s="90">
-        <v>2</v>
-      </c>
-      <c r="E14" s="85">
-        <v>1984</v>
-      </c>
-      <c r="F14" s="85">
-        <v>4</v>
-      </c>
-      <c r="G14" s="76">
-        <v>16.5833333333333</v>
-      </c>
-      <c r="H14" s="88">
-        <v>0.58333333333329995</v>
-      </c>
-      <c r="I14" s="86">
-        <v>2009</v>
-      </c>
-      <c r="J14" s="89">
-        <v>9</v>
-      </c>
-      <c r="K14" s="85">
-        <v>81</v>
-      </c>
-      <c r="L14" s="87">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="42">
-        <v>245</v>
-      </c>
-      <c r="D15" s="90">
-        <v>6</v>
-      </c>
-      <c r="E15" s="85">
-        <v>1984</v>
-      </c>
-      <c r="F15" s="85">
-        <v>4</v>
-      </c>
-      <c r="G15" s="76">
-        <v>16.5833333333333</v>
-      </c>
-      <c r="H15" s="88">
-        <v>0.58333333333329995</v>
-      </c>
-      <c r="I15" s="86">
-        <v>2010</v>
-      </c>
-      <c r="J15" s="89">
-        <v>10</v>
-      </c>
-      <c r="K15" s="85">
-        <v>100</v>
-      </c>
-      <c r="L15" s="87">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-    </row>
-    <row r="17" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-    </row>
-    <row r="18" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="68" t="s">
-        <v>314</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>246</v>
-      </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-    </row>
-    <row r="19" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="82" t="s">
-        <v>327</v>
-      </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-    </row>
-    <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="94" t="s">
-        <v>319</v>
-      </c>
-      <c r="D20" s="82" t="s">
-        <v>330</v>
-      </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-    </row>
-    <row r="21" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="94" t="s">
-        <v>312</v>
-      </c>
-      <c r="D21" s="82" t="s">
-        <v>328</v>
-      </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-    </row>
-    <row r="22" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="95" t="s">
-        <v>334</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>329</v>
-      </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-    </row>
-    <row r="23" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="94" t="s">
-        <v>313</v>
-      </c>
-      <c r="D23" s="82" t="s">
-        <v>250</v>
-      </c>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-    </row>
-    <row r="24" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="96" t="s">
-        <v>318</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>331</v>
-      </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-    </row>
-    <row r="25" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="81" t="s">
-        <v>320</v>
-      </c>
-      <c r="D25" s="82" t="s">
-        <v>332</v>
-      </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-    </row>
-    <row r="26" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="81" t="s">
-        <v>321</v>
-      </c>
-      <c r="D26" s="82" t="s">
-        <v>333</v>
-      </c>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-    </row>
-    <row r="27" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="22" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:L18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" t="str">
-        <f>LEFT(A1,9)</f>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E1" t="str">
-        <f>MID(A1,10,9)</f>
-        <v xml:space="preserve">A0001200 </v>
-      </c>
-      <c r="F1" t="str">
-        <f>MID(A1,18,10)</f>
-        <v xml:space="preserve"> vx0f.;</v>
-      </c>
-      <c r="H1" t="str">
-        <f>D1</f>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" t="str">
-        <f t="shared" ref="J1" si="0">F1</f>
-        <v xml:space="preserve"> vx0f.;</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D52" si="1">LEFT(A2,9)</f>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E52" si="2">MID(A2,10,9)</f>
-        <v xml:space="preserve">R0000100 </v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F52" si="3">MID(A2,18,10)</f>
-        <v xml:space="preserve"> vx1f.;</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H52" si="4">D2</f>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" ref="J2:J52" si="5">F2</f>
-        <v xml:space="preserve"> vx1f.;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R0002100 </v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx2f.;</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx2f.;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R0323900 </v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx3f.;</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx3f.;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R0536300 </v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx4f.;</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx4f.;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R0536401 </v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx5f.;</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx5f.;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R0552200 </v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx7f.;</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx7f.;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R0624400 </v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx8f.;</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx8f.;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R0624500 </v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx9f.;</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx9f.;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R0624600 </v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx10f.;</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I10" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx10f.;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R0624700 </v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx11f.;</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I11" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx11f.;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R0624800 </v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx12f.;</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I12" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx12f.;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R0624900 </v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx13f.;</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I13" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx13f.;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R0625000 </v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx14f.;</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx14f.;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R0625100 </v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx15f.;</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I15" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx15f.;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R0625200 </v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx16f.;</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I16" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx16f.;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R1235800 </v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx17f.;</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I17" t="s">
-        <v>112</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx17f.;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R1482600 </v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx18f.;</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I18" t="s">
-        <v>113</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx18f.;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R1486900 </v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx19f.;</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx19f.;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R2165200 </v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx20f.;</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I20" t="s">
-        <v>115</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx20f.;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R3483100 </v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx21f.;</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I21" t="s">
-        <v>116</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx21f.;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R4881300 </v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx22f.;</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx22f.;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R4893400 </v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx23f.;</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I23" t="s">
-        <v>118</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx23f.;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">R6520100 </v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx24f.;</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx24f.;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S0919300 </v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx25f.;</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx25f.;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S0919400 </v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx26f.;</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I26" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx26f.;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S0919500 </v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx27f.;</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I27" t="s">
-        <v>119</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx27f.;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S0919600 </v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx28f.;</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I28" t="s">
-        <v>120</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx28f.;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S0919700 </v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx29f.;</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I29" t="s">
-        <v>121</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx29f.;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S0919800 </v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx30f.;</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I30" t="s">
-        <v>122</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx30f.;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S2987800 </v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx31f.;</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I31" t="s">
-        <v>123</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx31f.;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S4681700 </v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx32f.;</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I32" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx32f.;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S6316700 </v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx33f.;</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx33f.;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S6316800 </v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx34f.;</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx34f.;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S6316900 </v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx35f.;</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I35" t="s">
-        <v>124</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx35f.;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S6317000 </v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx36f.;</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I36" t="s">
-        <v>125</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx36f.;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S6317100 </v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx37f.;</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I37" t="s">
-        <v>126</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx37f.;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S6317200 </v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx38f.;</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I38" t="s">
-        <v>127</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx38f.;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S8331500 </v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx39f.;</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I39" t="s">
-        <v>128</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx39f.;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S8331700 </v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx40f.;</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I40" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx40f.;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S8331800 </v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx41f.;</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx41f.;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S8331900 </v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx42f.;</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I42" t="s">
-        <v>130</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx42f.;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S8332000 </v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx43f.;</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I43" t="s">
-        <v>131</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx43f.;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">S8332100 </v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx44f.;</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I44" t="s">
-        <v>132</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx44f.;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">T0739400 </v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx45f.;</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I45" t="s">
-        <v>133</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx45f.;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">T2781700 </v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx46f.;</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I46" t="s">
-        <v>42</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx46f.;</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">T2781900 </v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx47f.;</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I47" t="s">
-        <v>43</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx47f.;</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">T2782000 </v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx48f.;</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I48" t="s">
-        <v>134</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx48f.;</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">T2782100 </v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx49f.;</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I49" t="s">
-        <v>135</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx49f.;</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">T2782200 </v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx50f.;</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I50" t="s">
-        <v>136</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx50f.;</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">T2782300 </v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx51f.;</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I51" t="s">
-        <v>137</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx51f.;</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">T2782400 </v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> vx52f.; </v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  format </v>
-      </c>
-      <c r="I52" t="s">
-        <v>138</v>
-      </c>
-      <c r="J52" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> vx52f.; </v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>